--- a/src/main/resources/static/excel/InitSQL_template.xlsx
+++ b/src/main/resources/static/excel/InitSQL_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HiSunTech\workspace\ConvertExcelTool\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A3ECEAC-8EF4-4461-BDE2-C18BFFF69CA7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDB877FE-1D05-47D9-AF04-CD72EC09AB43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,6 +1250,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,15 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1333,7 +1333,7 @@
       <sheetName val="数据字典(一体化)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="43">
           <cell r="E43" t="str">
@@ -13599,7 +13599,7 @@
             <v>X</v>
           </cell>
           <cell r="AJ265">
-            <v>20</v>
+            <v>10</v>
           </cell>
           <cell r="AM265" t="str">
             <v>M</v>
@@ -13611,7 +13611,7 @@
             <v>20</v>
           </cell>
           <cell r="AP265" t="str">
-            <v>X(20)</v>
+            <v>X(10)</v>
           </cell>
         </row>
         <row r="266">
@@ -55291,16 +55291,16 @@
       <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="228" customHeight="1">
       <c r="A2" s="26"/>
@@ -55308,637 +55308,637 @@
       <c r="C2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="67"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="67"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="67"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
     <mergeCell ref="D46:K46"/>
     <mergeCell ref="D41:K41"/>
     <mergeCell ref="D42:K42"/>
     <mergeCell ref="D43:K43"/>
     <mergeCell ref="D44:K44"/>
     <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56530,7 +56530,7 @@
       </c>
       <c r="E20" s="10" t="str">
         <f>VLOOKUP(D20,'[1]数据字典(一体化)'!$E$43:$AP$944,38,)</f>
-        <v>X(20)</v>
+        <v>X(10)</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>39</v>
@@ -56560,7 +56560,7 @@
       </c>
       <c r="E21" s="10" t="str">
         <f>VLOOKUP(D21,'[1]数据字典(一体化)'!$E$43:$AP$944,38,)</f>
-        <v>X(20)</v>
+        <v>X(10)</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>39</v>
